--- a/data/trans_dic/CONS_OTR-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_OTR-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>28,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>29,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>15,15%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,74; 23,64</t>
+          <t>24,25; 32,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,56</t>
+          <t>3,07; 8,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,66; 26,82</t>
+          <t>14,4; 21,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,61; 15,97</t>
+          <t>26,84; 33,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,21; 17,03</t>
+          <t>12,31; 19,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,3; 27,44</t>
+          <t>10,45; 15,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,28; 18,49</t>
+          <t>26,39; 31,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,03; 12,4</t>
+          <t>9,4; 14,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,32; 26,26</t>
+          <t>12,99; 17,39</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>10,23%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 12,9</t>
+          <t>17,95; 21,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,33</t>
+          <t>0,73; 2,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,9; 19,78</t>
+          <t>8,62; 11,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,1; 12,12</t>
+          <t>16,47; 19,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,66; 6,75</t>
+          <t>3,11; 6,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,73; 18,47</t>
+          <t>8,83; 12,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,96; 12,12</t>
+          <t>17,71; 19,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 4,41</t>
+          <t>2,21; 4,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,65; 18,63</t>
+          <t>9,17; 11,37</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>7,88%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 12,03</t>
+          <t>12,03; 17,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,84</t>
+          <t>0,0; 1,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,88; 16,41</t>
+          <t>5,78; 10,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,53</t>
+          <t>10,34; 14,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 8,33</t>
+          <t>4,9; 9,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,24; 13,94</t>
+          <t>6,15; 10,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,41; 10,4</t>
+          <t>11,85; 14,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,43</t>
+          <t>2,41; 4,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,5; 14,28</t>
+          <t>6,55; 9,5</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>18,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>10,41%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,5; 13,88</t>
+          <t>18,25; 20,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 2,44</t>
+          <t>0,98; 2,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,27; 19,49</t>
+          <t>9,42; 11,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,5; 11,7</t>
+          <t>17,26; 19,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 8,61</t>
+          <t>5,39; 8,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,34; 18,52</t>
+          <t>9,18; 11,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,8; 12,44</t>
+          <t>18,08; 19,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,47; 5,49</t>
+          <t>3,37; 5,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,15; 18,63</t>
+          <t>9,58; 11,14</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de otros medicamentos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>24779</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11490</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>38111</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>38064</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>59991</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>36050</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>62843</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>71480</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>74161</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>21354; 28898</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7029; 18546</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>31068; 46091</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>34284; 42579</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>48616; 76590</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>28600; 43199</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>56959; 68769</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>58719; 88550</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>63583; 85098</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>87821</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19653</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>86610</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>78033</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>70819</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>90421</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>165854</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>90472</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>177030</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>81424; 95859</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10249; 30242</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>74372; 100862</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>71114; 85639</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>43138; 93708</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>76647; 105108</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>156768; 176489</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>61784; 115723</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>158804; 196825</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22201</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>28453</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>23809</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>29896</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>34243</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>46010</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>30841</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>62696</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18244; 26057</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4727</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21898; 37922</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20093; 27513</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>21732; 40951</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25619; 43596</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>40970; 51794</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21760; 41850</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>52137; 75550</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1616</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>134801</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>32087</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>153174</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>139906</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>160706</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>160713</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>274707</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>192793</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>313887</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>126482; 144537</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>20638; 44699</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>137351; 171992</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>130102; 148979</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>119937; 196068</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>143158; 181144</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>261578; 288073</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>145848; 227064</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>289073; 336092</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_OTR-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_OTR-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos</t>
+          <t>Consumo de otros medicamentos (tasa de respuesta: 99,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos</t>
+          <t>Consumo de otros medicamentos (tasa de respuesta: 99,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_OTR-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_OTR-Estudios-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29,8%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>28,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,25; 32,81</t>
+          <t>22,61; 30,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 8,09</t>
+          <t>2,91; 7,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,84; 33,33</t>
+          <t>26,23; 33,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,31; 19,39</t>
+          <t>12,43; 19,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,39; 31,87</t>
+          <t>25,84; 31,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,4; 14,18</t>
+          <t>9,5; 14,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,95; 21,14</t>
+          <t>16,06; 19,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,15</t>
+          <t>0,76; 2,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,47; 19,83</t>
+          <t>15,87; 19,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,76</t>
+          <t>3,07; 6,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,71; 19,94</t>
+          <t>16,58; 18,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,14</t>
+          <t>2,27; 4,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,03; 17,19</t>
+          <t>10,41; 14,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,03</t>
+          <t>0,0; 1,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,34; 14,16</t>
+          <t>10,28; 13,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,9; 9,24</t>
+          <t>4,84; 9,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,85; 14,98</t>
+          <t>10,93; 13,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,63</t>
+          <t>2,4; 4,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,25; 20,85</t>
+          <t>16,12; 18,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,13</t>
+          <t>0,95; 2,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,26; 19,76</t>
+          <t>16,78; 19,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 8,81</t>
+          <t>5,25; 8,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,08; 19,91</t>
+          <t>16,74; 18,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,25</t>
+          <t>3,54; 5,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24779</t>
+          <t>21772</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>38064</t>
+          <t>35992</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62843</t>
+          <t>57763</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21354; 28898</t>
+          <t>18662; 25513</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7029; 18546</t>
+          <t>6680; 18207</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34284; 42579</t>
+          <t>31858; 40564</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48616; 76590</t>
+          <t>49122; 77964</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>56959; 68769</t>
+          <t>52711; 63738</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>58719; 88550</t>
+          <t>59311; 91488</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>87821</t>
+          <t>81225</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>78033</t>
+          <t>78354</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>165854</t>
+          <t>159578</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81424; 95859</t>
+          <t>74155; 88516</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10249; 30242</t>
+          <t>10776; 29717</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>71114; 85639</t>
+          <t>70520; 85635</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>43138; 93708</t>
+          <t>42494; 94216</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>156768; 176489</t>
+          <t>150242; 169601</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>61784; 115723</t>
+          <t>63494; 118876</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22201</t>
+          <t>21858</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23809</t>
+          <t>27295</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46010</t>
+          <t>49153</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18244; 26057</t>
+          <t>18284; 25943</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0; 4727</t>
+          <t>0; 5858</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20093; 27513</t>
+          <t>23434; 31768</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21732; 40951</t>
+          <t>21450; 41951</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>40970; 51794</t>
+          <t>44091; 55284</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>21760; 41850</t>
+          <t>21640; 41672</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>134801</t>
+          <t>124854</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>139906</t>
+          <t>141641</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>274707</t>
+          <t>266494</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>126482; 144537</t>
+          <t>116055; 133662</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20638; 44699</t>
+          <t>19839; 43625</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>130102; 148979</t>
+          <t>133192; 151985</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>119937; 196068</t>
+          <t>116845; 190531</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>261578; 288073</t>
+          <t>253417; 279577</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>145848; 227064</t>
+          <t>152904; 228980</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_OTR-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_OTR-Estudios-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4,78%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17,66%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>26,38%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,01%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>17,66%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>14,39%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13,17%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>29,63%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>15,18%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>13,17%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>10,81%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15,15%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>28,32%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>11,45%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>15,15%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>2,78; 7,63</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14,4; 21,36</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>22,61; 30,91</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,91; 7,94</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>14,4; 21,36</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>11,73; 16,94</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10,45; 15,78</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>26,23; 33,4</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>12,43; 19,73</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>10,45; 15,78</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>9,1; 12,87</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12,99; 17,39</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>25,84; 31,24</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>9,5; 14,65</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>12,99; 17,39</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10,03%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>17,59%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,39%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>10,03%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10,41%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>17,63%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,11%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>10,41%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>3,88%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10,23%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>17,61%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,24%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>10,23%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>1,12; 2,46</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8,62; 11,69</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>16,06; 19,17</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,76; 2,11</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>8,62; 11,69</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>4,95; 7,55</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8,83; 12,11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>15,87; 19,27</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>3,07; 6,8</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>8,83; 12,11</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>3,22; 4,69</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9,17; 11,37</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>16,58; 18,72</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 4,25</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>9,17; 11,37</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7,52%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>12,45%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,52%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>7,05%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8,21%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>11,97%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,74%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>8,21%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7,88%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>12,18%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,41%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>7,88%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,0; 1,06</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5,78; 10,02</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>10,41; 14,78</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,27</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>5,78; 10,02</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>5,13; 9,58</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 10,46</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>10,28; 13,93</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>4,84; 9,46</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>6,15; 10,46</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>2,54; 4,8</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6,55; 9,5</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>10,93; 13,7</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>2,4; 4,61</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>6,55; 9,5</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10,51%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>17,35%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,53%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10,51%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>7,93%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10,31%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>17,84%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,23%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>10,31%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>4,93%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10,41%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>17,61%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4,46%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>10,41%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>1,22; 2,29</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9,42; 11,8</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>16,12; 18,57</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 2,08</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>9,42; 11,8</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>6,97; 8,88</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9,18; 11,62</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>16,78; 19,15</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>5,25; 8,57</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>9,18; 11,62</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>4,39; 5,59</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9,58; 11,14</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>16,74; 18,47</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>3,54; 5,3</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>9,58; 11,14</t>
         </is>
       </c>
     </row>
@@ -1146,47 +1146,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1216,47 +1216,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>142</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>229</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>371</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>199</t>
         </is>
       </c>
     </row>
@@ -1269,47 +1269,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>12254</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>38111</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>21772</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>11490</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>38111</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>62243</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>36050</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>35992</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>59991</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>36050</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>74498</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>74161</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>57763</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>71480</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>74161</t>
         </is>
       </c>
     </row>
@@ -1322,47 +1322,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>7139; 19558</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>31068; 46091</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>18662; 25513</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6680; 18207</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>31068; 46091</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>50728; 73269</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>28600; 43199</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>31858; 40564</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>49122; 77964</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>28600; 43199</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>62704; 88660</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>63583; 85098</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>52711; 63738</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>59311; 91488</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>63583; 85098</t>
         </is>
       </c>
     </row>
@@ -1379,47 +1379,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>497</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>193</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>463</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>166</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>960</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>359</t>
         </is>
       </c>
     </row>
@@ -1432,47 +1432,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>22078</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>86610</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>81225</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>19653</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>86610</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>77296</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>90421</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>78354</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>70819</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>90421</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>99374</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>177030</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>159578</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>90472</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>177030</t>
         </is>
       </c>
     </row>
@@ -1485,47 +1485,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>14433; 31668</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>74372; 100862</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>74155; 88516</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>10776; 29717</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>74372; 100862</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>62881; 96003</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>76647; 105108</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>70520; 85635</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>42494; 94216</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>76647; 105108</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>82423; 120016</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>158804; 196825</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>150242; 169601</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>63494; 118876</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>158804; 196825</t>
         </is>
       </c>
     </row>
@@ -1542,47 +1542,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>131</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>154</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>285</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>121</t>
         </is>
       </c>
     </row>
@@ -1595,47 +1595,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>877</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>28453</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>21858</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>28453</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>34954</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>34243</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>27295</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>29896</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>34243</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>35832</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>62696</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>49153</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>30841</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>62696</t>
         </is>
       </c>
     </row>
@@ -1648,47 +1648,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0; 5411</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21898; 37922</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>18284; 25943</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0; 5858</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>21898; 37922</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>25437; 47490</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>25619; 43596</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>23434; 31768</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>21450; 41951</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>25619; 43596</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>25540; 48252</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>52137; 75550</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>44091; 55284</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>21640; 41672</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>52137; 75550</t>
         </is>
       </c>
     </row>
@@ -1705,47 +1705,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>770</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>369</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>846</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>1616</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>291</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>679</t>
         </is>
       </c>
     </row>
@@ -1758,47 +1758,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>35210</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>153174</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>124854</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>32087</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>153174</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>174494</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>160713</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>141641</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>160706</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>160713</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>209703</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>313887</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>266494</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>192793</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>313887</t>
         </is>
       </c>
     </row>
@@ -1811,47 +1811,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>25152; 46975</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>137351; 171992</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>116055; 133662</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>19839; 43625</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>137351; 171992</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>153348; 195381</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>143158; 181144</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>133192; 151985</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>116845; 190531</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>143158; 181144</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>186529; 237952</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>289073; 336092</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>253417; 279577</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>152904; 228980</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>289073; 336092</t>
         </is>
       </c>
     </row>
